--- a/biology/Botanique/Distillerie/Distillerie.xlsx
+++ b/biology/Botanique/Distillerie/Distillerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une distillerie est un lieu de fabrication de produits obtenus par distillation, essentiellement des eaux-de-vie et des parfums.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Distillerie d'eau-de-vie
-Distillerie de rhum
-Distillerie de vin
-Distillerie de whisky
-Les distilleries de whisky sont présentes dans le monde entier, elles se concentrent principalement dans des pays tels que l'Écosse, l'Irlande, les États-Unis et le Japon[1]. Voici quelques exemples de distilleries notables dans chacun de ces pays :
+          <t>Distillerie de whisky</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les distilleries de whisky sont présentes dans le monde entier, elles se concentrent principalement dans des pays tels que l'Écosse, l'Irlande, les États-Unis et le Japon. Voici quelques exemples de distilleries notables dans chacun de ces pays :
 Écosse : L'Écosse est considérée comme le berceau du whisky et compte plus de 130 distilleries en activité. Parmi les plus célèbres, on trouve :
 Glenfiddich : Fondée en 1887, c'est l'une des distilleries les plus connues et les plus visitées.
 The Macallan : Cette distillerie produit des whiskies de qualité supérieure, souvent utilisés pour le vieillissement en fûts de chêne.
@@ -562,6 +576,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -587,7 +603,9 @@
           <t>Industrie chimique et pétrochimique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'industrie pétrochimique on parlera plutôt de raffinerie pratiquant la distillation du pétrole au lieu de distillerie.
 </t>
@@ -618,7 +636,9 @@
           <t>Alambic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Condenseur du vieil alambic de la distillerie de genièvre "Claeyssens" de Wambrechies (Nord-France).
